--- a/biology/Histoire de la zoologie et de la botanique/Théodore_Lecard/Théodore_Lecard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Théodore_Lecard/Théodore_Lecard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Lecard</t>
+          <t>Théodore_Lecard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Théodore Lecard est un botaniste français qui a œuvré au développement des cultures tropicales en Cochinchine, en Algérie, au Sénégal et au Soudan français[1].
-Théodore Lecard, succéda au jardinier Jean Michel Claude Richard, au poste de directeur du jardin botanique de Richard-Toll, sous le contrôle de Louis Faidherbe, militaire français chargé d'administrer le Sénégal et décidé à favoriser les plantations. Ses expériences ont montré en 1865 que les rendements cotonniers étaient plus que décuplés en culture d'irrigation, atteignant 200 à 300 kg de coton par hectare[2] mais pouvant dépasser 1 150 kg pour les bonnes terres[3]. Lecard a comparé les rendements des cotons cultivés au Sénégal et en Égypte et aux États-Unis[4] pour identifier les facteurs de performances[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Théodore Lecard est un botaniste français qui a œuvré au développement des cultures tropicales en Cochinchine, en Algérie, au Sénégal et au Soudan français.
+Théodore Lecard, succéda au jardinier Jean Michel Claude Richard, au poste de directeur du jardin botanique de Richard-Toll, sous le contrôle de Louis Faidherbe, militaire français chargé d'administrer le Sénégal et décidé à favoriser les plantations. Ses expériences ont montré en 1865 que les rendements cotonniers étaient plus que décuplés en culture d'irrigation, atteignant 200 à 300 kg de coton par hectare mais pouvant dépasser 1 150 kg pour les bonnes terres. Lecard a comparé les rendements des cotons cultivés au Sénégal et en Égypte et aux États-Unis pour identifier les facteurs de performances.
 Le ministre de l'instruction publique l'a ensuite chargé d'une mission d'exploration au Soudan, à la suite du voyage à Séga de Paul Soleillet. Ses expériences sur l'irrigation seront reprises par l'inspecteur général des colonies Yves Henry, auteur en 1906 de l'ouvrage Le Coton dans l'Afrique Occidentale Française.
 </t>
         </is>
